--- a/Spraw2/tabele.xlsx
+++ b/Spraw2/tabele.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52E0440-F190-4C7B-AAD9-87BA5A00B923}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0976D475-DA40-4DF7-ACC7-72FDE58D8E80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="270" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
   <si>
     <t>Nr Srednicy:</t>
   </si>
@@ -64,9 +64,6 @@
     <t>Srednia:</t>
   </si>
   <si>
-    <t>Pomiary Kulki Bialej:</t>
-  </si>
-  <si>
     <t>d[m]</t>
   </si>
   <si>
@@ -76,10 +73,7 @@
     <t>t[s]</t>
   </si>
   <si>
-    <t>Pomiary Kulki Czarnej:</t>
-  </si>
-  <si>
-    <t>Pomiary Kulki Niebieskiej:</t>
+    <t>Nr pomiaru</t>
   </si>
 </sst>
 </file>
@@ -156,10 +150,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="20% - Accent3" xfId="1" builtinId="38"/>
-    <cellStyle name="Accent5" xfId="2" builtinId="45"/>
+    <cellStyle name="20% — akcent 3" xfId="1" builtinId="38"/>
+    <cellStyle name="Akcent 5" xfId="2" builtinId="45"/>
     <cellStyle name="Black" xfId="3" xr:uid="{C619D73B-EF3E-4655-B258-A54E0A601C30}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -440,28 +434,28 @@
   <dimension ref="C4:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="C22" sqref="C22:F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -502,7 +496,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>1</v>
       </c>
@@ -543,7 +537,7 @@
         <v>37.08</v>
       </c>
     </row>
-    <row r="6" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>2</v>
       </c>
@@ -584,7 +578,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>3</v>
       </c>
@@ -625,7 +619,7 @@
         <v>37.159999999999997</v>
       </c>
     </row>
-    <row r="8" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>4</v>
       </c>
@@ -666,7 +660,7 @@
         <v>37.92</v>
       </c>
     </row>
-    <row r="9" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>5</v>
       </c>
@@ -707,7 +701,7 @@
         <v>37.39</v>
       </c>
     </row>
-    <row r="10" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>6</v>
       </c>
@@ -748,7 +742,7 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="11" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>7</v>
       </c>
@@ -789,7 +783,7 @@
         <v>36.86</v>
       </c>
     </row>
-    <row r="12" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>8</v>
       </c>
@@ -830,7 +824,7 @@
         <v>37.39</v>
       </c>
     </row>
-    <row r="13" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C13">
         <v>9</v>
       </c>
@@ -871,7 +865,7 @@
         <v>36.520000000000003</v>
       </c>
     </row>
-    <row r="14" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C14">
         <v>10</v>
       </c>
@@ -912,7 +906,7 @@
         <v>36.29</v>
       </c>
     </row>
-    <row r="15" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>13</v>
       </c>
@@ -953,7 +947,7 @@
         <v>37.041000000000004</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -967,45 +961,45 @@
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" t="s">
         <v>14</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>15</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>16</v>
       </c>
-      <c r="F22" t="s">
+      <c r="H22" t="s">
         <v>17</v>
       </c>
-      <c r="H22" t="s">
-        <v>18</v>
-      </c>
       <c r="I22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22" t="s">
         <v>15</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>16</v>
       </c>
-      <c r="K22" t="s">
+      <c r="M22" t="s">
         <v>17</v>
       </c>
-      <c r="M22" t="s">
-        <v>19</v>
-      </c>
       <c r="N22" t="s">
+        <v>14</v>
+      </c>
+      <c r="O22" t="s">
         <v>15</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>16</v>
       </c>
-      <c r="P22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C23">
         <v>1</v>
       </c>
@@ -1043,7 +1037,7 @@
         <v>37.08</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C24">
         <v>2</v>
       </c>
@@ -1081,7 +1075,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C25">
         <v>3</v>
       </c>
@@ -1119,7 +1113,7 @@
         <v>37.159999999999997</v>
       </c>
     </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C26">
         <v>4</v>
       </c>
@@ -1157,7 +1151,7 @@
         <v>37.92</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C27">
         <v>5</v>
       </c>
@@ -1195,7 +1189,7 @@
         <v>37.39</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C28">
         <v>6</v>
       </c>
@@ -1233,7 +1227,7 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C29">
         <v>7</v>
       </c>
@@ -1271,7 +1265,7 @@
         <v>36.86</v>
       </c>
     </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C30">
         <v>8</v>
       </c>
@@ -1309,7 +1303,7 @@
         <v>37.39</v>
       </c>
     </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C31">
         <v>9</v>
       </c>
@@ -1347,7 +1341,7 @@
         <v>36.520000000000003</v>
       </c>
     </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C32">
         <v>10</v>
       </c>
@@ -1385,7 +1379,7 @@
         <v>36.29</v>
       </c>
     </row>
-    <row r="33" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>13</v>
       </c>
